--- a/previsão.xlsx
+++ b/previsão.xlsx
@@ -1,24 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sefazarquivos\AEMFPF\DIVERSOS\Previs-o-RCL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E263ED-E9DA-47D6-AAC9-245FBF9CCF41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Previsão_ETS</t>
+  </si>
+  <si>
+    <t>lo80_ETS</t>
+  </si>
+  <si>
+    <t>hi80_ETS</t>
+  </si>
+  <si>
+    <t>lo95_ETS</t>
+  </si>
+  <si>
+    <t>hi95_ETS</t>
+  </si>
+  <si>
+    <t>Previsão_Holt</t>
+  </si>
+  <si>
+    <t>lo80_Holt</t>
+  </si>
+  <si>
+    <t>hi80_Holt</t>
+  </si>
+  <si>
+    <t>lo95_Holt</t>
+  </si>
+  <si>
+    <t>hi95_Holt</t>
+  </si>
+  <si>
+    <t>Previsão_HW</t>
+  </si>
+  <si>
+    <t>lo80_HW</t>
+  </si>
+  <si>
+    <t>hi80_HW</t>
+  </si>
+  <si>
+    <t>lo95_HW</t>
+  </si>
+  <si>
+    <t>hi95_HW</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,11 +126,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -113,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -145,9 +212,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,6 +264,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -354,943 +457,919 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" activeCellId="2" sqref="A1:A18 F1:F18 K1:K18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Previsão_ETS</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>lo80_ETS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>hi80_ETS</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>lo95_ETS</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>hi95_ETS</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Previsão_Holt</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lo80_Holt</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>hi80_Holt</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>lo95_Holt</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>hi95_Holt</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Previsão_HW</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>lo80_HW</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>hi80_HW</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>lo95_HW</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>hi95_HW</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>34432470594.82724</v>
+        <v>34575610222.333923</v>
       </c>
       <c r="B2">
-        <v>33984677844.02475</v>
+        <v>34107519291.19894</v>
       </c>
       <c r="C2">
-        <v>34882126241.38097</v>
+        <v>35032149272.678741</v>
       </c>
       <c r="D2">
-        <v>33764795769.6897</v>
+        <v>33877189371.291271</v>
       </c>
       <c r="E2">
-        <v>35094774635.44125</v>
+        <v>35279540109.977676</v>
       </c>
       <c r="F2">
-        <v>34341871623.90287</v>
+        <v>34590404760.147522</v>
       </c>
       <c r="G2">
-        <v>34044780072.22687</v>
+        <v>34292880617.619221</v>
       </c>
       <c r="H2">
-        <v>34638963175.57887</v>
+        <v>34887928902.675827</v>
       </c>
       <c r="I2">
-        <v>33887509304.78024</v>
+        <v>34135380850.408211</v>
       </c>
       <c r="J2">
-        <v>34796233943.0255</v>
+        <v>35045428669.886833</v>
       </c>
       <c r="K2">
-        <v>34194066996.63856</v>
+        <v>34404243055.69973</v>
       </c>
       <c r="L2">
-        <v>33789952289.40318</v>
+        <v>34003175836.109241</v>
       </c>
       <c r="M2">
-        <v>34598181703.87394</v>
+        <v>34805310275.290222</v>
       </c>
       <c r="N2">
-        <v>33576026885.65192</v>
+        <v>33790863674.868549</v>
       </c>
       <c r="O2">
-        <v>34812107107.62521</v>
+        <v>35017622436.530907</v>
       </c>
       <c r="P2" s="2">
         <v>44927</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>34837497534.32072</v>
+        <v>34860810455.000092</v>
       </c>
       <c r="B3">
-        <v>34176183179.98611</v>
+        <v>34139085145.633949</v>
       </c>
       <c r="C3">
-        <v>35506274317.30984</v>
+        <v>35551137919.534218</v>
       </c>
       <c r="D3">
-        <v>33816507509.78883</v>
+        <v>33771163897.006561</v>
       </c>
       <c r="E3">
-        <v>35858228748.70407</v>
+        <v>35938624721.272377</v>
       </c>
       <c r="F3">
-        <v>34651597215.1774</v>
+        <v>34888064876.929123</v>
       </c>
       <c r="G3">
-        <v>34191564368.11173</v>
+        <v>34426085854.774818</v>
       </c>
       <c r="H3">
-        <v>35111630062.24306</v>
+        <v>35350043899.083412</v>
       </c>
       <c r="I3">
-        <v>33948037689.2125</v>
+        <v>34181528933.015942</v>
       </c>
       <c r="J3">
-        <v>35355156741.1423</v>
+        <v>35594600820.842293</v>
       </c>
       <c r="K3">
-        <v>34483520011.1706</v>
+        <v>34709474405.637627</v>
       </c>
       <c r="L3">
-        <v>33916375026.77571</v>
+        <v>34143543675.1772</v>
       </c>
       <c r="M3">
-        <v>35050664995.56549</v>
+        <v>35275405136.098053</v>
       </c>
       <c r="N3">
-        <v>33616146607.46824</v>
+        <v>33843958043.07478</v>
       </c>
       <c r="O3">
-        <v>35350893414.87297</v>
+        <v>35574990768.20047</v>
       </c>
       <c r="P3" s="2">
         <v>44958</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>35247288779.68252</v>
+        <v>35142303297.689079</v>
       </c>
       <c r="B4">
-        <v>34401318284.07145</v>
+        <v>34183017045.754459</v>
       </c>
       <c r="C4">
-        <v>36109781823.25946</v>
+        <v>36052894639.809982</v>
       </c>
       <c r="D4">
-        <v>33934815097.33131</v>
+        <v>33727580931.9487</v>
       </c>
       <c r="E4">
-        <v>36570753149.07886</v>
+        <v>36561538983.296753</v>
       </c>
       <c r="F4">
-        <v>34961322806.45193</v>
+        <v>35185724993.710709</v>
       </c>
       <c r="G4">
-        <v>34348144316.07334</v>
+        <v>34568485555.588829</v>
       </c>
       <c r="H4">
-        <v>35574501296.83053</v>
+        <v>35802964431.832588</v>
       </c>
       <c r="I4">
-        <v>34023547230.69821</v>
+        <v>34241738734.334148</v>
       </c>
       <c r="J4">
-        <v>35899098382.20567</v>
+        <v>36129711253.087273</v>
       </c>
       <c r="K4">
-        <v>34877560961.60373</v>
+        <v>35070488688.775421</v>
       </c>
       <c r="L4">
-        <v>34160224061.5407</v>
+        <v>34353790523.263828</v>
       </c>
       <c r="M4">
-        <v>35594897861.66676</v>
+        <v>35787186854.28701</v>
       </c>
       <c r="N4">
-        <v>33780488844.72198</v>
+        <v>33974393432.091999</v>
       </c>
       <c r="O4">
-        <v>35974633078.48548</v>
+        <v>36166583945.458839</v>
       </c>
       <c r="P4" s="2">
         <v>44986</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>35661900373.13647</v>
+        <v>35420089546.715599</v>
       </c>
       <c r="B5">
-        <v>34631946110.51923</v>
+        <v>34239812397.486919</v>
       </c>
       <c r="C5">
-        <v>36707904216.99869</v>
+        <v>36555758473.147011</v>
       </c>
       <c r="D5">
-        <v>34084220533.86457</v>
+        <v>33637739829.10957</v>
       </c>
       <c r="E5">
-        <v>37265575056.0903</v>
+        <v>37200923822.75309</v>
       </c>
       <c r="F5">
-        <v>35271048397.72646</v>
+        <v>35483385110.492302</v>
       </c>
       <c r="G5">
-        <v>34504754704.28791</v>
+        <v>34710432880.921387</v>
       </c>
       <c r="H5">
-        <v>36037342091.16502</v>
+        <v>36256337340.063217</v>
       </c>
       <c r="I5">
-        <v>34099103326.53341</v>
+        <v>34301256687.056499</v>
       </c>
       <c r="J5">
-        <v>36442993468.91952</v>
+        <v>36665513533.928108</v>
       </c>
       <c r="K5">
-        <v>35241329456.63728</v>
+        <v>35420950599.036507</v>
       </c>
       <c r="L5">
-        <v>34377919699.77148</v>
+        <v>34558241679.715263</v>
       </c>
       <c r="M5">
-        <v>36104739213.50307</v>
+        <v>36283659518.357773</v>
       </c>
       <c r="N5">
-        <v>33920858183.49087</v>
+        <v>34101551164.42025</v>
       </c>
       <c r="O5">
-        <v>36561800729.78368</v>
+        <v>36740350033.652771</v>
       </c>
       <c r="P5" s="2">
         <v>45017</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>36081389016.12751</v>
+        <v>35694172225.696861</v>
       </c>
       <c r="B6">
-        <v>34854160301.19449</v>
+        <v>34291414353.991322</v>
       </c>
       <c r="C6">
-        <v>37325736381.91429</v>
+        <v>37092665888.398987</v>
       </c>
       <c r="D6">
-        <v>34229382757.08997</v>
+        <v>33539466883.667542</v>
       </c>
       <c r="E6">
-        <v>37954698666.12865</v>
+        <v>37885257498.228203</v>
       </c>
       <c r="F6">
-        <v>35580773989.00099</v>
+        <v>35781045227.273903</v>
       </c>
       <c r="G6">
-        <v>34658193681.66883</v>
+        <v>34848794560.761993</v>
       </c>
       <c r="H6">
-        <v>36503354296.33315</v>
+        <v>36713295893.785797</v>
       </c>
       <c r="I6">
-        <v>34169809168.05091</v>
+        <v>34355290868.2206</v>
       </c>
       <c r="J6">
-        <v>36991738809.95107</v>
+        <v>37206799586.327187</v>
       </c>
       <c r="K6">
-        <v>35587775845.43632</v>
+        <v>35794759224.624947</v>
       </c>
       <c r="L6">
-        <v>34578926351.93135</v>
+        <v>34787096281.321213</v>
       </c>
       <c r="M6">
-        <v>36596625338.94128</v>
+        <v>36802422167.92868</v>
       </c>
       <c r="N6">
-        <v>34044873689.75838</v>
+        <v>34253671740.88279</v>
       </c>
       <c r="O6">
-        <v>37130678001.11426</v>
+        <v>37335846708.367104</v>
       </c>
       <c r="P6" s="2">
         <v>45047</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>36505812077.07601</v>
+        <v>35964556494.688988</v>
       </c>
       <c r="B7">
-        <v>35110044621.72276</v>
+        <v>34336827719.784359</v>
       </c>
       <c r="C7">
-        <v>37906487605.87265</v>
+        <v>37604685158.067459</v>
       </c>
       <c r="D7">
-        <v>34425249584.98449</v>
+        <v>33502615149.768398</v>
       </c>
       <c r="E7">
-        <v>38690640814.64431</v>
+        <v>38634459809.941437</v>
       </c>
       <c r="F7">
-        <v>35890499580.27553</v>
+        <v>36078705344.055489</v>
       </c>
       <c r="G7">
-        <v>34807123943.59232</v>
+        <v>34982280333.105324</v>
       </c>
       <c r="H7">
-        <v>36973875216.95874</v>
+        <v>37175130355.005661</v>
       </c>
       <c r="I7">
-        <v>34233619524.32171</v>
+        <v>34401867992.373848</v>
       </c>
       <c r="J7">
-        <v>37547379636.22935</v>
+        <v>37755542695.737129</v>
       </c>
       <c r="K7">
-        <v>35966487538.40804</v>
+        <v>36118965208.145248</v>
       </c>
       <c r="L7">
-        <v>34811114770.80514</v>
+        <v>34965585044.243187</v>
       </c>
       <c r="M7">
-        <v>37121860306.01095</v>
+        <v>37272345372.04731</v>
       </c>
       <c r="N7">
-        <v>34199497372.65709</v>
+        <v>34355022466.777439</v>
       </c>
       <c r="O7">
-        <v>37733477704.159</v>
+        <v>37882907949.513046</v>
       </c>
       <c r="P7" s="2">
         <v>45078</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>36935227599.22341</v>
+        <v>36231249560.743019</v>
       </c>
       <c r="B8">
-        <v>35389804217.27267</v>
+        <v>34381116870.013924</v>
       </c>
       <c r="C8">
-        <v>38529372288.86726</v>
+        <v>38159290815.412086</v>
       </c>
       <c r="D8">
-        <v>34577583053.88989</v>
+        <v>33414267657.017071</v>
       </c>
       <c r="E8">
-        <v>39325176099.5707</v>
+        <v>39310983387.120987</v>
       </c>
       <c r="F8">
-        <v>36200225171.55006</v>
+        <v>36376365460.837082</v>
       </c>
       <c r="G8">
-        <v>34950937063.41639</v>
+        <v>35110316701.863487</v>
       </c>
       <c r="H8">
-        <v>37449513279.68372</v>
+        <v>37642414219.810677</v>
       </c>
       <c r="I8">
-        <v>34289603887.09503</v>
+        <v>34440110972.937973</v>
       </c>
       <c r="J8">
-        <v>38110846456.00508</v>
+        <v>38312619948.736198</v>
       </c>
       <c r="K8">
-        <v>36263930607.33865</v>
+        <v>36376390917.837959</v>
       </c>
       <c r="L8">
-        <v>34960007860.38835</v>
+        <v>35075527349.455849</v>
       </c>
       <c r="M8">
-        <v>37567853354.28896</v>
+        <v>37677254486.22007</v>
       </c>
       <c r="N8">
-        <v>34269752853.31351</v>
+        <v>34386891773.692543</v>
       </c>
       <c r="O8">
-        <v>38258108361.36379</v>
+        <v>38365890061.983383</v>
       </c>
       <c r="P8" s="2">
         <v>45108</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>37369694308.57002</v>
+        <v>36494260589.96479</v>
       </c>
       <c r="B9">
-        <v>35670120985.18513</v>
+        <v>34379850998.281914</v>
       </c>
       <c r="C9">
-        <v>39147102660.32462</v>
+        <v>38689865221.46714</v>
       </c>
       <c r="D9">
-        <v>34806334416.17976</v>
+        <v>33311796343.474449</v>
       </c>
       <c r="E9">
-        <v>40088469949.56837</v>
+        <v>39939431585.803268</v>
       </c>
       <c r="F9">
-        <v>36509950762.82458</v>
+        <v>36674025577.618683</v>
       </c>
       <c r="G9">
-        <v>35089359985.41927</v>
+        <v>35232657795.190918</v>
       </c>
       <c r="H9">
-        <v>37930541540.2299</v>
+        <v>38115393360.046432</v>
       </c>
       <c r="I9">
-        <v>34337344653.68143</v>
+        <v>34469643781.374481</v>
       </c>
       <c r="J9">
-        <v>38682556871.96774</v>
+        <v>38878407373.862869</v>
       </c>
       <c r="K9">
-        <v>36546833401.45734</v>
+        <v>36669034441.018257</v>
       </c>
       <c r="L9">
-        <v>35091782364.11287</v>
+        <v>35218330808.627197</v>
       </c>
       <c r="M9">
-        <v>38001884438.8018</v>
+        <v>38119738073.409309</v>
       </c>
       <c r="N9">
-        <v>34321524872.68901</v>
+        <v>34450374694.369972</v>
       </c>
       <c r="O9">
-        <v>38772141930.22566</v>
+        <v>38887694187.666542</v>
       </c>
       <c r="P9" s="2">
         <v>45139</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>37809271621.90637</v>
+        <v>36753600621.153702</v>
       </c>
       <c r="B10">
-        <v>35909653209.02061</v>
+        <v>34351534527.201309</v>
       </c>
       <c r="C10">
-        <v>39781794985.05682</v>
+        <v>39221185541.562378</v>
       </c>
       <c r="D10">
-        <v>35007915584.2109</v>
+        <v>33202033959.99012</v>
       </c>
       <c r="E10">
-        <v>40743753655.52686</v>
+        <v>40655718942.372177</v>
       </c>
       <c r="F10">
-        <v>36819676354.09912</v>
+        <v>36971685694.400269</v>
       </c>
       <c r="G10">
-        <v>35222289543.77145</v>
+        <v>35349222292.770569</v>
       </c>
       <c r="H10">
-        <v>38417063164.4268</v>
+        <v>38594149096.029968</v>
       </c>
       <c r="I10">
-        <v>34376684045.56013</v>
+        <v>34490342048.990883</v>
       </c>
       <c r="J10">
-        <v>39262668662.63811</v>
+        <v>39453029339.809662</v>
       </c>
       <c r="K10">
-        <v>36860582424.0584</v>
+        <v>37008657830.220917</v>
       </c>
       <c r="L10">
-        <v>35251491210.68652</v>
+        <v>35405396598.390381</v>
       </c>
       <c r="M10">
-        <v>38469673637.43028</v>
+        <v>38611919062.051468</v>
       </c>
       <c r="N10">
-        <v>34399689775.77192</v>
+        <v>34556681369.280128</v>
       </c>
       <c r="O10">
-        <v>39321475072.34489</v>
+        <v>39460634291.16172</v>
       </c>
       <c r="P10" s="2">
         <v>45170</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>38254019654.93887</v>
+        <v>37009282481.087273</v>
       </c>
       <c r="B11">
-        <v>36153240736.5338</v>
+        <v>34327634508.801121</v>
       </c>
       <c r="C11">
-        <v>40390634330.11562</v>
+        <v>39741197970.813927</v>
       </c>
       <c r="D11">
-        <v>35170781342.22694</v>
+        <v>33082076549.463539</v>
       </c>
       <c r="E11">
-        <v>41607579399.81007</v>
+        <v>41405413074.897202</v>
       </c>
       <c r="F11">
-        <v>37129401945.37365</v>
+        <v>37269345811.181862</v>
       </c>
       <c r="G11">
-        <v>35349713802.89499</v>
+        <v>35460016242.268494</v>
       </c>
       <c r="H11">
-        <v>38909090087.85231</v>
+        <v>39078675380.095238</v>
       </c>
       <c r="I11">
-        <v>34407603808.83994</v>
+        <v>34502215024.894218</v>
       </c>
       <c r="J11">
-        <v>39851200081.90736</v>
+        <v>40036476597.469513</v>
       </c>
       <c r="K11">
-        <v>37239653686.93674</v>
+        <v>37351589760.11528</v>
       </c>
       <c r="L11">
-        <v>35473406566.03931</v>
+        <v>35592829279.702957</v>
       </c>
       <c r="M11">
-        <v>39005900807.83416</v>
+        <v>39110350240.527603</v>
       </c>
       <c r="N11">
-        <v>34538411819.0097</v>
+        <v>34661797720.748016</v>
       </c>
       <c r="O11">
-        <v>39940895554.86377</v>
+        <v>40041381799.482536</v>
       </c>
       <c r="P11" s="2">
         <v>45200</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>38703999230.51109</v>
+        <v>37261320701.509781</v>
       </c>
       <c r="B12">
-        <v>36435956774.19312</v>
+        <v>34353172727.461811</v>
       </c>
       <c r="C12">
-        <v>41053059023.88214</v>
+        <v>40303507589.129288</v>
       </c>
       <c r="D12">
-        <v>35309601507.6339</v>
+        <v>32900014568.575008</v>
       </c>
       <c r="E12">
-        <v>42394649463.07403</v>
+        <v>42141873377.994713</v>
       </c>
       <c r="F12">
-        <v>37439127536.64818</v>
+        <v>37567005927.963463</v>
       </c>
       <c r="G12">
-        <v>35471671398.04292</v>
+        <v>35565093368.735573</v>
       </c>
       <c r="H12">
-        <v>39406583675.25344</v>
+        <v>39568918487.191353</v>
       </c>
       <c r="I12">
-        <v>34430163031.04136</v>
+        <v>34505344874.459389</v>
       </c>
       <c r="J12">
-        <v>40448092042.255</v>
+        <v>40628666981.467522</v>
       </c>
       <c r="K12">
-        <v>37620289243.73118</v>
+        <v>37705345059.474007</v>
       </c>
       <c r="L12">
-        <v>35693647625.34321</v>
+        <v>35788005147.647591</v>
       </c>
       <c r="M12">
-        <v>39546930862.11915</v>
+        <v>39622684971.300438</v>
       </c>
       <c r="N12">
-        <v>34673745160.23057</v>
+        <v>34773026708.550652</v>
       </c>
       <c r="O12">
-        <v>40566833327.23179</v>
+        <v>40637663410.397377</v>
       </c>
       <c r="P12" s="2">
         <v>45231</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>39159271886.92184</v>
+        <v>37509731437.876007</v>
       </c>
       <c r="B13">
-        <v>36685141748.16354</v>
+        <v>34294863532.72213</v>
       </c>
       <c r="C13">
-        <v>41746031170.58233</v>
+        <v>40851730818.414093</v>
       </c>
       <c r="D13">
-        <v>35437567044.4756</v>
+        <v>32714603494.905811</v>
       </c>
       <c r="E13">
-        <v>43284531949.92886</v>
+        <v>42936798450.176376</v>
       </c>
       <c r="F13">
-        <v>37748853127.92271</v>
+        <v>37864666044.745049</v>
       </c>
       <c r="G13">
-        <v>35588229224.3121</v>
+        <v>35664533430.605057</v>
       </c>
       <c r="H13">
-        <v>39909477031.53333</v>
+        <v>40064798658.885033</v>
       </c>
       <c r="I13">
-        <v>34444464019.38647</v>
+        <v>34499853577.6838</v>
       </c>
       <c r="J13">
-        <v>41053242236.45895</v>
+        <v>41229478511.806297</v>
       </c>
       <c r="K13">
-        <v>38011763410.49239</v>
+        <v>38130704738.352364</v>
       </c>
       <c r="L13">
-        <v>35921418233.04609</v>
+        <v>36051622232.510002</v>
       </c>
       <c r="M13">
-        <v>40102108587.93868</v>
+        <v>40209787244.19471</v>
       </c>
       <c r="N13">
-        <v>34814856338.46935</v>
+        <v>34951022436.137199</v>
       </c>
       <c r="O13">
-        <v>41208670482.51543</v>
+        <v>41310387040.567513</v>
       </c>
       <c r="P13" s="2">
         <v>45261</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>39619899886.34096</v>
+        <v>37754532389.893227</v>
       </c>
       <c r="B14">
-        <v>36939448861.61211</v>
+        <v>34249814352.209629</v>
       </c>
       <c r="C14">
-        <v>42482025308.81116</v>
+        <v>41431734863.290268</v>
       </c>
       <c r="D14">
-        <v>35544240182.26186</v>
+        <v>32578914460.019218</v>
       </c>
       <c r="E14">
-        <v>44125892045.4454</v>
+        <v>43597975309.117622</v>
       </c>
       <c r="F14">
-        <v>38058578719.19724</v>
+        <v>38162326161.526642</v>
       </c>
       <c r="G14">
-        <v>35699469653.57335</v>
+        <v>35758429912.394234</v>
       </c>
       <c r="H14">
-        <v>40417687784.82114</v>
+        <v>40566222410.659058</v>
       </c>
       <c r="I14">
-        <v>34450632750.78053</v>
+        <v>34485884106.798813</v>
       </c>
       <c r="J14">
-        <v>41666524687.61396</v>
+        <v>41838768216.254478</v>
       </c>
       <c r="K14">
-        <v>38173711519.95345</v>
+        <v>38242207680.152512</v>
       </c>
       <c r="L14">
-        <v>35897964921.91938</v>
+        <v>35981931373.366867</v>
       </c>
       <c r="M14">
-        <v>40449458117.98751</v>
+        <v>40502483986.938148</v>
       </c>
       <c r="N14">
-        <v>34693257443.81109</v>
+        <v>34785413372.75647</v>
       </c>
       <c r="O14">
-        <v>41654165596.0958</v>
+        <v>41699001987.548553</v>
       </c>
       <c r="P14" s="2">
         <v>45292</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>40085946223.32421</v>
+        <v>37995742723.898499</v>
       </c>
       <c r="B15">
-        <v>37198121311.26422</v>
+        <v>34241947277.70018</v>
       </c>
       <c r="C15">
-        <v>43143504471.32957</v>
+        <v>41976302795.172096</v>
       </c>
       <c r="D15">
-        <v>35705723990.9595</v>
+        <v>32423893392.783482</v>
       </c>
       <c r="E15">
-        <v>44905524433.7357</v>
+        <v>44317501964.221687</v>
       </c>
       <c r="F15">
-        <v>38368304310.47177</v>
+        <v>38459986278.308228</v>
       </c>
       <c r="G15">
-        <v>35805482981.9791</v>
+        <v>35846882821.154251</v>
       </c>
       <c r="H15">
-        <v>40931125638.96444</v>
+        <v>41073089735.462196</v>
       </c>
       <c r="I15">
-        <v>34448807321.27168</v>
+        <v>34463589409.390633</v>
       </c>
       <c r="J15">
-        <v>42287801299.67186</v>
+        <v>42456383147.22583</v>
       </c>
       <c r="K15">
-        <v>38463164534.48549</v>
+        <v>38547439030.090408</v>
       </c>
       <c r="L15">
-        <v>36018291613.89268</v>
+        <v>36120106414.965622</v>
       </c>
       <c r="M15">
-        <v>40908037455.0783</v>
+        <v>40974771645.215187</v>
       </c>
       <c r="N15">
-        <v>34724054068.7253</v>
+        <v>34835154146.631737</v>
       </c>
       <c r="O15">
-        <v>42202275000.24567</v>
+        <v>42259723913.549072</v>
       </c>
       <c r="P15" s="2">
         <v>45323</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>40557474633.42827</v>
+        <v>38233382997.101059</v>
       </c>
       <c r="B16">
-        <v>37464679352.49776</v>
+        <v>34203263043.88763</v>
       </c>
       <c r="C16">
-        <v>43878947748.54404</v>
+        <v>42587286025.925713</v>
       </c>
       <c r="D16">
-        <v>35902968921.4345</v>
+        <v>32202945419.618591</v>
       </c>
       <c r="E16">
-        <v>45872293775.45167</v>
+        <v>45175422097.966858</v>
       </c>
       <c r="F16">
-        <v>38678029901.74631</v>
+        <v>38757646395.089828</v>
       </c>
       <c r="G16">
-        <v>35906362876.26627</v>
+        <v>35929994394.574516</v>
       </c>
       <c r="H16">
-        <v>41449696927.22635</v>
+        <v>41585298395.605141</v>
       </c>
       <c r="I16">
-        <v>34439130981.77219</v>
+        <v>34433125844.512131</v>
       </c>
       <c r="J16">
-        <v>42916928821.72042</v>
+        <v>43082166945.667526</v>
       </c>
       <c r="K16">
-        <v>38857205484.91862</v>
+        <v>38908453313.228203</v>
       </c>
       <c r="L16">
-        <v>36239707710.3434</v>
+        <v>36310703640.896278</v>
       </c>
       <c r="M16">
-        <v>41474703259.49384</v>
+        <v>41506202985.560127</v>
       </c>
       <c r="N16">
-        <v>34854088087.45279</v>
+        <v>34935538031.853897</v>
       </c>
       <c r="O16">
-        <v>42860322882.38445</v>
+        <v>42881368594.602501</v>
       </c>
       <c r="P16" s="2">
         <v>45352</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>41034549601.92704</v>
+        <v>38467475083.714218</v>
       </c>
       <c r="B17">
-        <v>37698257731.0016</v>
+        <v>34137080456.713329</v>
       </c>
       <c r="C17">
-        <v>44585767748.21122</v>
+        <v>43170375727.39357</v>
       </c>
       <c r="D17">
-        <v>36070749588.30181</v>
+        <v>32112118340.97155</v>
       </c>
       <c r="E17">
-        <v>46816223352.66167</v>
+        <v>46038407356.329697</v>
       </c>
       <c r="F17">
-        <v>38987755493.02084</v>
+        <v>39055306511.871407</v>
       </c>
       <c r="G17">
-        <v>36002203599.14028</v>
+        <v>36007866526.588387</v>
       </c>
       <c r="H17">
-        <v>41973307386.90139</v>
+        <v>42102746497.154442</v>
       </c>
       <c r="I17">
-        <v>34421747894.64957</v>
+        <v>34394649245.486816</v>
       </c>
       <c r="J17">
-        <v>43553763091.3921</v>
+        <v>43715963778.256012</v>
       </c>
       <c r="K17">
-        <v>39220973979.95216</v>
+        <v>39258915223.489304</v>
       </c>
       <c r="L17">
-        <v>36427390812.82038</v>
+        <v>36487416721.141769</v>
       </c>
       <c r="M17">
-        <v>42014557147.08395</v>
+        <v>42030413725.836823</v>
       </c>
       <c r="N17">
-        <v>34948557213.742</v>
+        <v>35020274037.405243</v>
       </c>
       <c r="O17">
-        <v>43493390746.16232</v>
+        <v>43497556409.573349</v>
       </c>
       <c r="P17" s="2">
         <v>45383</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>41517236372.63058</v>
+        <v>38698042102.994797</v>
       </c>
       <c r="B18">
-        <v>37969598036.17771</v>
+        <v>34097787925.872452</v>
       </c>
       <c r="C18">
-        <v>45351856252.06836</v>
+        <v>43776042570.971718</v>
       </c>
       <c r="D18">
-        <v>36245943053.32206</v>
+        <v>31897489985.898849</v>
       </c>
       <c r="E18">
-        <v>47616293715.59401</v>
+        <v>46839638211.663727</v>
       </c>
       <c r="F18">
-        <v>39297481084.29537</v>
+        <v>39352966628.653008</v>
       </c>
       <c r="G18">
-        <v>36093098318.92329</v>
+        <v>36080599232.704773</v>
       </c>
       <c r="H18">
-        <v>42501863849.66745</v>
+        <v>42625334024.60125</v>
       </c>
       <c r="I18">
-        <v>34396800548.55647</v>
+        <v>34348312572.8358</v>
       </c>
       <c r="J18">
-        <v>44198161620.03427</v>
+        <v>44357620684.470207</v>
       </c>
       <c r="K18">
-        <v>39567420368.75121</v>
+        <v>39632723849.077721</v>
       </c>
       <c r="L18">
-        <v>36594332435.26868</v>
+        <v>36684178250.272751</v>
       </c>
       <c r="M18">
-        <v>42540508302.23373</v>
+        <v>42581269447.88269</v>
       </c>
       <c r="N18">
-        <v>35020474752.85622</v>
+        <v>35123312495.055458</v>
       </c>
       <c r="O18">
-        <v>44114365984.64619</v>
+        <v>44142135203.099983</v>
       </c>
       <c r="P18" s="2">
         <v>45413</v>
